--- a/reports/test.xlsx
+++ b/reports/test.xlsx
@@ -5,62 +5,43 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elie.raad\Desktop\Insurance-Management\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\EligibilityAPI\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C02B06-7DDB-4414-AD6B-66B4DA92690A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC5A875-65CA-4002-B895-0B7952F44572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Beneficiary" sheetId="1" r:id="rId1"/>
-    <sheet name="Policy" sheetId="2" r:id="rId2"/>
-    <sheet name="Claim" sheetId="3" r:id="rId3"/>
+    <sheet name="Version" sheetId="1" r:id="rId1"/>
+    <sheet name="Policies" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Relationship</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Date Of Birth</t>
-  </si>
-  <si>
-    <t>Policy No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Effective Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ExpiryDate</t>
-  </si>
-  <si>
-    <t>Claim No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Claimed Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Incurred Date</t>
-  </si>
-  <si>
-    <t>Elie Raad</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Self</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>VersionNumber</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifier</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>Elie</t>
+  </si>
+  <si>
+    <t>E11</t>
   </si>
 </sst>
 </file>
@@ -93,9 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,45 +390,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>35921</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -460,78 +420,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1720</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43466</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-      <c r="B2">
-        <v>500</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44021</v>
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/test.xlsx
+++ b/reports/test.xlsx
@@ -5,61 +5,131 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\EligibilityAPI\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elie.raad\Documents\EligibilityAPI\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC5A875-65CA-4002-B895-0B7952F44572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{997DF90D-6E74-409E-8C51-2F178BC08174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12795" yWindow="2505" windowWidth="21600" windowHeight="9450" activeTab="3" xr2:uid="{5636B94B-4CF8-44AA-BFBD-458CB07DCD7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
-    <sheet name="Policies" sheetId="2" r:id="rId2"/>
+    <sheet name="Beneficiaries" sheetId="2" r:id="rId2"/>
+    <sheet name="Policies" sheetId="3" r:id="rId3"/>
+    <sheet name="Claims" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>VersionNumber</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Identifier</t>
-  </si>
-  <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
-    <t>Elie</t>
-  </si>
-  <si>
-    <t>E11</t>
+    <t>v1.1.0</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Elie Raad</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Id' must be 24 characters in length. You entered 4 characters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Gender' has a range of values which does not include 'Male'. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Relationship' has a range of values which does not include 'Self'. </t>
+  </si>
+  <si>
+    <t>EffectiveDate</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Effective Date' must be greater than '7/9/2020 9:31:22 PM'. </t>
+  </si>
+  <si>
+    <t>PolicyNo</t>
+  </si>
+  <si>
+    <t>ClaimedAmount</t>
+  </si>
+  <si>
+    <t>IncurredDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Policy No' must be 24 characters in length. You entered 4 characters. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBE0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,8 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,66 +461,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C066DF20-9E6F-4934-B7E3-241607A0265E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5B3CDB-7EA9-4422-B8D7-E46D05C29CFF}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0">
+        <v>35921</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69C39EA-5807-438A-9688-DD99617CDDE2}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C2" s="0">
+        <v>44386</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE880A7F-6CA3-47D2-84C0-3F20D5E5AABF}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C2" s="0">
+        <v>500</v>
+      </c>
+      <c r="D2" s="0">
+        <v>44114</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/reports/test.xlsx
+++ b/reports/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elie.raad\Documents\EligibilityAPI\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{997DF90D-6E74-409E-8C51-2F178BC08174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB2D110-5B20-4BE8-A6A8-2DC753004D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12795" yWindow="2505" windowWidth="21600" windowHeight="9450" activeTab="3" xr2:uid="{5636B94B-4CF8-44AA-BFBD-458CB07DCD7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C55A729-A55F-4FBD-9F89-246BE4AC4E53}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>VersionNumber</t>
   </si>
@@ -50,52 +50,37 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
     <t>Relationship</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>DateOfBirth</t>
   </si>
   <si>
-    <t>Elie Raad</t>
+    <t>Elie</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
   <si>
     <t>Self</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Id' must be 24 characters in length. You entered 4 characters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Gender' has a range of values which does not include 'Male'. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Relationship' has a range of values which does not include 'Self'. </t>
-  </si>
-  <si>
     <t>EffectiveDate</t>
   </si>
   <si>
     <t>ExpiryDate</t>
   </si>
   <si>
-    <t xml:space="preserve">'Effective Date' must be greater than '7/9/2020 9:31:22 PM'. </t>
+    <t>ClaimedAmount</t>
   </si>
   <si>
     <t>PolicyNo</t>
   </si>
   <si>
-    <t>ClaimedAmount</t>
-  </si>
-  <si>
     <t>IncurredDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Policy No' must be 24 characters in length. You entered 4 characters. </t>
   </si>
 </sst>
 </file>
@@ -103,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,23 +98,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFBE0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,10 +128,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,11 +456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C066DF20-9E6F-4934-B7E3-241607A0265E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A5BF6F-61D8-4A93-8ABE-0F5E8263C7B9}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,11 +482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5B3CDB-7EA9-4422-B8D7-E46D05C29CFF}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3710DC0-E24D-4881-BE28-3068A679C2F2}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,29 +509,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1001</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2" s="4">
         <v>35921</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -546,41 +532,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69C39EA-5807-438A-9688-DD99617CDDE2}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AE65DD-99D3-4978-B65D-EDF830815A83}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
-      <c r="B2" s="1">
-        <v>44021</v>
-      </c>
-      <c r="C2" s="0">
-        <v>44386</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
+      <c r="B2" s="5">
+        <v>44022</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44387</v>
       </c>
     </row>
   </sheetData>
@@ -590,47 +574,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE880A7F-6CA3-47D2-84C0-3F20D5E5AABF}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF27F723-0159-43FB-B85C-8AEA9094DA06}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>3001</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
+        <v>500</v>
+      </c>
+      <c r="C2" s="1">
         <v>2001</v>
       </c>
-      <c r="C2" s="0">
-        <v>500</v>
-      </c>
-      <c r="D2" s="0">
+      <c r="D2" s="6">
         <v>44114</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
